--- a/results/synechocystis_sp_pcc_6803/Day_night_cycles_Study/synechocystis_sp_pcc_6803_carbon_source_functional_composition.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Day_night_cycles_Study/synechocystis_sp_pcc_6803_carbon_source_functional_composition.xlsx
@@ -469,7 +469,7 @@
         <v>1.030927835051546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6369426751592357</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>7.731958762886598</v>
       </c>
       <c r="C4" t="n">
-        <v>7.006369426751593</v>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>7.0446735395189</v>
       </c>
       <c r="C5" t="n">
-        <v>8.917197452229299</v>
+        <v>8.666666666666668</v>
       </c>
     </row>
     <row r="6">
@@ -534,7 +534,7 @@
         <v>3.092783505154639</v>
       </c>
       <c r="C7" t="n">
-        <v>2.547770700636943</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -560,7 +560,7 @@
         <v>1.030927835051546</v>
       </c>
       <c r="C9" t="n">
-        <v>1.273885350318471</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>15.97938144329897</v>
       </c>
       <c r="C10" t="n">
-        <v>7.006369426751593</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         <v>1.030927835051546</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6369426751592357</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -625,7 +625,7 @@
         <v>3.436426116838488</v>
       </c>
       <c r="C14" t="n">
-        <v>2.547770700636943</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.751313485113835</v>
+        <v>1.522842639593909</v>
       </c>
       <c r="C2" t="n">
-        <v>2.027027027027027</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="3">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7005253940455342</v>
+        <v>0.8460236886632826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.8130081300813009</v>
       </c>
     </row>
     <row r="4">
@@ -697,59 +697,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.502626970227671</v>
+        <v>2.876480541455161</v>
       </c>
       <c r="C4" t="n">
-        <v>8.108108108108109</v>
+        <v>9.75609756097561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1692047377326565</v>
       </c>
       <c r="C5" t="n">
-        <v>1.351351351351351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8756567425569177</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.626016260162602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.225919439579685</v>
+        <v>0.5076142131979695</v>
       </c>
       <c r="C7" t="n">
-        <v>1.351351351351351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.225919439579685</v>
+        <v>1.015228426395939</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -758,11 +758,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.225919439579685</v>
+        <v>1.861252115059222</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -771,11 +771,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3502626970227671</v>
+        <v>1.015228426395939</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -784,11 +784,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.152364273204904</v>
+        <v>0.338409475465313</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -797,180 +797,180 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.101576182136602</v>
+        <v>3.214890016920473</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6756756756756757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3502626970227671</v>
+        <v>17.25888324873096</v>
       </c>
       <c r="C13" t="n">
-        <v>6.081081081081082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3502626970227671</v>
+        <v>2.030456852791878</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.626016260162602</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.225919439579685</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>4.878048780487805</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1751313485113835</v>
+        <v>4.568527918781726</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6756756756756757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3502626970227671</v>
+        <v>1.184433164128596</v>
       </c>
       <c r="C17" t="n">
-        <v>2.027027027027027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.028021015761821</v>
+        <v>0.1692047377326565</v>
       </c>
       <c r="C18" t="n">
-        <v>6.081081081081082</v>
+        <v>0.8130081300813009</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.802101576182137</v>
+        <v>0.1692047377326565</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6756756756756757</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.101576182136602</v>
+        <v>3.045685279187818</v>
       </c>
       <c r="C20" t="n">
-        <v>1.351351351351351</v>
+        <v>6.504065040650407</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5253940455341506</v>
+        <v>2.030456852791878</v>
       </c>
       <c r="C21" t="n">
-        <v>3.378378378378379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1751313485113835</v>
+        <v>1.522842639593909</v>
       </c>
       <c r="C22" t="n">
-        <v>2.027027027027027</v>
+        <v>1.626016260162602</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8756567425569177</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.8130081300813009</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.401050788091068</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.351351351351351</v>
+        <v>0.8130081300813009</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.225919439579685</v>
+        <v>0.1692047377326565</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -979,245 +979,245 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.926444833625219</v>
+        <v>0.1692047377326565</v>
       </c>
       <c r="C26" t="n">
-        <v>1.351351351351351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8460236886632826</v>
       </c>
       <c r="C27" t="n">
-        <v>3.378378378378379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5253940455341506</v>
+        <v>1.522842639593909</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6756756756756757</v>
+        <v>1.626016260162602</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.7338003502627</v>
+        <v>0.8460236886632826</v>
       </c>
       <c r="C29" t="n">
-        <v>10.81081081081081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.522842639593909</v>
       </c>
       <c r="C30" t="n">
-        <v>2.702702702702703</v>
+        <v>0.8130081300813009</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.576182136602452</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.751313485113835</v>
+        <v>0.6768189509306261</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6756756756756757</v>
+        <v>1.626016260162602</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.576182136602452</v>
+        <v>1.353637901861252</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6756756756756757</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.028021015761821</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.756756756756757</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.23642732049037</v>
+        <v>1.522842639593909</v>
       </c>
       <c r="C35" t="n">
-        <v>6.081081081081082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.705779334500876</v>
+        <v>1.692047377326565</v>
       </c>
       <c r="C36" t="n">
-        <v>6.756756756756757</v>
+        <v>0.8130081300813009</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.604203152364273</v>
+        <v>1.353637901861252</v>
       </c>
       <c r="C37" t="n">
-        <v>7.432432432432432</v>
+        <v>0.8130081300813009</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.327495621716287</v>
+        <v>3.214890016920473</v>
       </c>
       <c r="C38" t="n">
-        <v>2.702702702702703</v>
+        <v>5.691056910569105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.152364273204904</v>
+        <v>1.861252115059222</v>
       </c>
       <c r="C39" t="n">
-        <v>4.054054054054054</v>
+        <v>1.626016260162602</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.225919439579685</v>
+        <v>6.937394247038917</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6756756756756757</v>
+        <v>5.691056910569105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.225919439579685</v>
+        <v>4.230118443316413</v>
       </c>
       <c r="C41" t="n">
-        <v>3.378378378378379</v>
+        <v>5.691056910569105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.214890016920473</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6756756756756757</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8756567425569177</v>
+        <v>1.692047377326565</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3502626970227671</v>
+        <v>1.522842639593909</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1226,105 +1226,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.45183887915937</v>
+        <v>1.015228426395939</v>
       </c>
       <c r="C45" t="n">
-        <v>2.702702702702703</v>
+        <v>4.065040650406504</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.225919439579685</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.8130081300813009</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.015228426395939</v>
       </c>
       <c r="C47" t="n">
-        <v>1.351351351351351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15.23642732049037</v>
+        <v>1.692047377326565</v>
       </c>
       <c r="C48" t="n">
-        <v>18.91891891891892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.926444833625219</v>
+        <v>2.368866328257191</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.252032520325204</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.225919439579685</v>
+        <v>1.522842639593909</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6756756756756757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.576182136602452</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>2.027027027027027</v>
+        <v>1.626016260162602</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7.106598984771574</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12.19512195121951</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.368866328257191</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.184433164128596</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8130081300813009</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.030456852791878</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.439024390243902</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.351351351351351</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.065040650406504</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1370,10 +1422,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.718213058419244</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C2" t="n">
-        <v>1.910828025477707</v>
+        <v>2.255639097744361</v>
       </c>
     </row>
     <row r="3">
@@ -1383,10 +1435,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6872852233676976</v>
+        <v>0.8210180623973727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6369426751592357</v>
+        <v>0.7518796992481203</v>
       </c>
     </row>
     <row r="4">
@@ -1396,59 +1448,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.436426116838488</v>
+        <v>2.791461412151067</v>
       </c>
       <c r="C4" t="n">
-        <v>8.280254777070063</v>
+        <v>7.518796992481203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="C5" t="n">
-        <v>1.910828025477707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.859106529209622</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6369426751592357</v>
+        <v>2.255639097744361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.202749140893471</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="C7" t="n">
-        <v>1.273885350318471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.202749140893471</v>
+        <v>0.9852216748768473</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1457,11 +1509,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.202749140893471</v>
+        <v>2.134646962233169</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1470,11 +1522,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3436426116838488</v>
+        <v>0.9852216748768473</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1483,11 +1535,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.092783505154639</v>
+        <v>0.3284072249589491</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1496,154 +1548,154 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.061855670103093</v>
+        <v>3.119868637110017</v>
       </c>
       <c r="C12" t="n">
-        <v>1.273885350318471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3436426116838488</v>
+        <v>16.7487684729064</v>
       </c>
       <c r="C13" t="n">
-        <v>7.643312101910828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3436426116838488</v>
+        <v>2.134646962233169</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.202749140893471</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6.015037593984962</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1718213058419244</v>
+        <v>4.433497536945813</v>
       </c>
       <c r="C16" t="n">
-        <v>1.910828025477707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6872852233676976</v>
+        <v>1.149425287356322</v>
       </c>
       <c r="C17" t="n">
-        <v>2.547770700636943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.951890034364261</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="C18" t="n">
-        <v>7.006369426751593</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.092783505154639</v>
+        <v>0.6568144499178982</v>
       </c>
       <c r="C19" t="n">
-        <v>3.184713375796179</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.061855670103093</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="C20" t="n">
-        <v>1.273885350318471</v>
+        <v>6.015037593984962</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5154639175257731</v>
+        <v>2.463054187192118</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1718213058419244</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C22" t="n">
-        <v>3.184713375796179</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.859106529209622</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1652,271 +1704,271 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.374570446735395</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.273885350318471</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.202749140893471</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="C25" t="n">
-        <v>1.273885350318471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.233676975945017</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="C26" t="n">
-        <v>1.273885350318471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8210180623973727</v>
       </c>
       <c r="C27" t="n">
-        <v>3.821656050955414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5154639175257731</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6369426751592357</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.16838487972509</v>
+        <v>0.8210180623973727</v>
       </c>
       <c r="C29" t="n">
-        <v>8.280254777070063</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.80623973727422</v>
       </c>
       <c r="C30" t="n">
-        <v>1.273885350318471</v>
+        <v>0.7518796992481203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.54639175257732</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.255639097744361</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.718213058419244</v>
+        <v>0.6568144499178982</v>
       </c>
       <c r="C32" t="n">
-        <v>1.910828025477707</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.54639175257732</v>
+        <v>1.149425287356322</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6369426751592357</v>
+        <v>2.255639097744361</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.123711340206185</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.006369426751593</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.94845360824742</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C35" t="n">
-        <v>5.732484076433122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.560137457044673</v>
+        <v>1.642036124794745</v>
       </c>
       <c r="C36" t="n">
-        <v>6.369426751592357</v>
+        <v>2.255639097744361</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.498281786941581</v>
+        <v>1.313628899835796</v>
       </c>
       <c r="C37" t="n">
-        <v>7.643312101910828</v>
+        <v>0.7518796992481203</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.436426116838488</v>
+        <v>3.119868637110017</v>
       </c>
       <c r="C38" t="n">
-        <v>3.821656050955414</v>
+        <v>6.015037593984962</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.951890034364261</v>
+        <v>1.642036124794745</v>
       </c>
       <c r="C39" t="n">
-        <v>3.184713375796179</v>
+        <v>1.503759398496241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.202749140893471</v>
+        <v>6.732348111658457</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6369426751592357</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.202749140893471</v>
+        <v>4.105090311986864</v>
       </c>
       <c r="C41" t="n">
-        <v>4.45859872611465</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.284072249589491</v>
       </c>
       <c r="C42" t="n">
-        <v>1.273885350318471</v>
+        <v>3.007518796992481</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.859106529209622</v>
+        <v>2.298850574712644</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.007518796992481</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3436426116838488</v>
+        <v>1.642036124794745</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1925,105 +1977,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.405498281786942</v>
+        <v>0.9852216748768473</v>
       </c>
       <c r="C45" t="n">
-        <v>3.184713375796179</v>
+        <v>4.511278195488721</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.202749140893471</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.255639097744361</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.9852216748768473</v>
       </c>
       <c r="C47" t="n">
-        <v>2.547770700636943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>14.94845360824742</v>
+        <v>1.642036124794745</v>
       </c>
       <c r="C48" t="n">
-        <v>8.280254777070063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.890034364261168</v>
+        <v>2.298850574712644</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.007518796992481</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.202749140893471</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6369426751592357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.718213058419244</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>3.184713375796179</v>
+        <v>3.759398496240602</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.766917293233083</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.298850574712644</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.149425287356322</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.7518796992481203</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.970443349753695</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.007518796992481</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.273885350318471</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.759398496240602</v>
       </c>
     </row>
   </sheetData>
@@ -2069,10 +2173,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.050788091068301</v>
+        <v>1.056338028169014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8547008547008548</v>
       </c>
     </row>
     <row r="3">
@@ -2082,7 +2186,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.576182136602452</v>
+        <v>1.584507042253521</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2095,10 +2199,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.056042031523642</v>
+        <v>7.922535211267606</v>
       </c>
       <c r="C4" t="n">
-        <v>8.333333333333332</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="5">
@@ -2108,10 +2212,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.005253940455342</v>
+        <v>7.04225352112676</v>
       </c>
       <c r="C5" t="n">
-        <v>8.333333333333334</v>
+        <v>8.547008547008547</v>
       </c>
     </row>
     <row r="6">
@@ -2121,7 +2225,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1751313485113835</v>
+        <v>0.176056338028169</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2134,10 +2238,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.152364273204904</v>
+        <v>3.169014084507042</v>
       </c>
       <c r="C7" t="n">
-        <v>7.5</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="8">
@@ -2147,7 +2251,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.751313485113835</v>
+        <v>1.76056338028169</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2160,10 +2264,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.050788091068301</v>
+        <v>1.056338028169014</v>
       </c>
       <c r="C9" t="n">
-        <v>1.666666666666667</v>
+        <v>1.70940170940171</v>
       </c>
     </row>
     <row r="10">
@@ -2173,10 +2277,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.28721541155867</v>
+        <v>16.37323943661972</v>
       </c>
       <c r="C10" t="n">
-        <v>7.5</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="11">
@@ -2186,7 +2290,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7005253940455342</v>
+        <v>0.7042253521126761</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2199,7 +2303,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7005253940455342</v>
+        <v>0.528169014084507</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2212,10 +2316,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.050788091068301</v>
+        <v>1.056338028169014</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8547008547008548</v>
       </c>
     </row>
     <row r="14">
@@ -2225,10 +2329,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.502626970227671</v>
+        <v>3.52112676056338</v>
       </c>
       <c r="C14" t="n">
-        <v>2.5</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2274,10 +2378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.751313485113835</v>
+        <v>1.533219761499148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="3">
@@ -2287,10 +2391,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7005253940455342</v>
+        <v>0.8517887563884157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="4">
@@ -2300,59 +2404,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.152364273204904</v>
+        <v>2.385008517887564</v>
       </c>
       <c r="C4" t="n">
-        <v>5.833333333333333</v>
+        <v>5.88235294117647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1703577512776831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8756567425569177</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.225919439579685</v>
+        <v>0.5110732538330494</v>
       </c>
       <c r="C7" t="n">
-        <v>1.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.225919439579685</v>
+        <v>1.022146507666099</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2361,11 +2465,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.225919439579685</v>
+        <v>2.214650766609881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2374,37 +2478,37 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3502626970227671</v>
+        <v>1.022146507666099</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.97723292469352</v>
+        <v>0.3407155025553663</v>
       </c>
       <c r="C11" t="n">
-        <v>2.5</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.101576182136602</v>
+        <v>3.236797274275979</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2413,24 +2517,24 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3502626970227671</v>
+        <v>17.03577512776831</v>
       </c>
       <c r="C13" t="n">
-        <v>5.833333333333333</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3502626970227671</v>
+        <v>2.044293015332197</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2439,141 +2543,141 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.225919439579685</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>4.901960784313726</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1751313485113835</v>
+        <v>4.599659284497445</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3502626970227671</v>
+        <v>1.192504258943782</v>
       </c>
       <c r="C17" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.028021015761821</v>
+        <v>0.1703577512776831</v>
       </c>
       <c r="C18" t="n">
-        <v>5.833333333333333</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.626970227670753</v>
+        <v>0.1703577512776831</v>
       </c>
       <c r="C19" t="n">
-        <v>3.333333333333333</v>
+        <v>3.92156862745098</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.101576182136602</v>
+        <v>3.066439522998297</v>
       </c>
       <c r="C20" t="n">
-        <v>1.666666666666667</v>
+        <v>4.901960784313726</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5253940455341506</v>
+        <v>1.703577512776831</v>
       </c>
       <c r="C21" t="n">
-        <v>4.166666666666666</v>
+        <v>1.96078431372549</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1751313485113835</v>
+        <v>1.533219761499148</v>
       </c>
       <c r="C22" t="n">
-        <v>2.5</v>
+        <v>1.96078431372549</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8756567425569177</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.401050788091068</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.225919439579685</v>
+        <v>0.1703577512776831</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2582,245 +2686,245 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.276707530647986</v>
+        <v>0.1703577512776831</v>
       </c>
       <c r="C26" t="n">
-        <v>1.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8517887563884157</v>
       </c>
       <c r="C27" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5253940455341506</v>
+        <v>1.533219761499148</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.20840630472855</v>
+        <v>0.8517887563884157</v>
       </c>
       <c r="C29" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.873935264054515</v>
       </c>
       <c r="C30" t="n">
-        <v>3.333333333333333</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.576182136602452</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.96078431372549</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.751313485113835</v>
+        <v>0.6814310051107325</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.96078431372549</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.576182136602452</v>
+        <v>1.022146507666099</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1.96078431372549</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.028021015761821</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.5</v>
+        <v>2.941176470588235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.71103327495622</v>
+        <v>1.533219761499148</v>
       </c>
       <c r="C35" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.705779334500876</v>
+        <v>1.703577512776831</v>
       </c>
       <c r="C36" t="n">
-        <v>7.5</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.604203152364273</v>
+        <v>1.362862010221465</v>
       </c>
       <c r="C37" t="n">
-        <v>9.166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.327495621716287</v>
+        <v>3.236797274275979</v>
       </c>
       <c r="C38" t="n">
-        <v>1.666666666666667</v>
+        <v>6.862745098039216</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.852889667250438</v>
+        <v>1.533219761499148</v>
       </c>
       <c r="C39" t="n">
-        <v>4.166666666666666</v>
+        <v>1.96078431372549</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.225919439579685</v>
+        <v>6.984667802385008</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8333333333333334</v>
+        <v>5.88235294117647</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.225919439579685</v>
+        <v>4.258943781942079</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>6.862745098039216</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.236797274275979</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.96078431372549</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8756567425569177</v>
+        <v>2.385008517887564</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.92156862745098</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3502626970227671</v>
+        <v>1.533219761499148</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -2829,105 +2933,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.45183887915937</v>
+        <v>1.022146507666099</v>
       </c>
       <c r="C45" t="n">
-        <v>2.5</v>
+        <v>4.901960784313726</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.225919439579685</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.022146507666099</v>
       </c>
       <c r="C47" t="n">
-        <v>1.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15.23642732049037</v>
+        <v>1.703577512776831</v>
       </c>
       <c r="C48" t="n">
-        <v>15.83333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.926444833625219</v>
+        <v>2.385008517887564</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2.941176470588235</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.225919439579685</v>
+        <v>1.533219761499148</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.576182136602452</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.666666666666667</v>
+        <v>1.96078431372549</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.984667802385008</v>
+      </c>
+      <c r="C52" t="n">
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.385008517887564</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.192504258943782</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9803921568627451</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.044293015332197</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.96078431372549</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.666666666666667</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.901960784313726</v>
       </c>
     </row>
   </sheetData>
@@ -2973,10 +3129,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.047120418848168</v>
+        <v>1.054481546572935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.6329113924050633</v>
       </c>
     </row>
     <row r="3">
@@ -2986,7 +3142,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.570680628272251</v>
+        <v>1.581722319859403</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2999,10 +3155,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.027923211169284</v>
+        <v>8.084358523725834</v>
       </c>
       <c r="C4" t="n">
-        <v>9.580838323353294</v>
+        <v>8.227848101265822</v>
       </c>
     </row>
     <row r="5">
@@ -3012,10 +3168,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.980802792321117</v>
+        <v>7.0298769771529</v>
       </c>
       <c r="C5" t="n">
-        <v>6.586826347305389</v>
+        <v>6.962025316455696</v>
       </c>
     </row>
     <row r="6">
@@ -3025,7 +3181,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1745200698080279</v>
+        <v>0.1757469244288225</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3038,10 +3194,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.792321116928447</v>
+        <v>2.81195079086116</v>
       </c>
       <c r="C7" t="n">
-        <v>1.796407185628742</v>
+        <v>1.89873417721519</v>
       </c>
     </row>
     <row r="8">
@@ -3051,7 +3207,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.745200698080279</v>
+        <v>1.757469244288225</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3064,10 +3220,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.047120418848168</v>
+        <v>1.054481546572935</v>
       </c>
       <c r="C9" t="n">
-        <v>2.994011976047904</v>
+        <v>3.164556962025316</v>
       </c>
     </row>
     <row r="10">
@@ -3077,10 +3233,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.70680628272251</v>
+        <v>15.81722319859403</v>
       </c>
       <c r="C10" t="n">
-        <v>5.988023952095809</v>
+        <v>6.329113924050634</v>
       </c>
     </row>
     <row r="11">
@@ -3090,7 +3246,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6980802792321117</v>
+        <v>0.7029876977152899</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -3103,7 +3259,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6980802792321117</v>
+        <v>0.7029876977152899</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -3116,10 +3272,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.047120418848168</v>
+        <v>1.054481546572935</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.6329113924050633</v>
       </c>
     </row>
     <row r="14">
@@ -3129,10 +3285,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.490401396160558</v>
+        <v>3.51493848857645</v>
       </c>
       <c r="C14" t="n">
-        <v>1.796407185628742</v>
+        <v>1.89873417721519</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,10 +3334,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.745200698080279</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C2" t="n">
-        <v>1.796407185628742</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -3191,10 +3347,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6980802792321117</v>
+        <v>0.8319467554076538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="4">
@@ -3204,59 +3360,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.490401396160558</v>
+        <v>2.662229617304492</v>
       </c>
       <c r="C4" t="n">
-        <v>7.784431137724551</v>
+        <v>9.285714285714286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1663893510815308</v>
       </c>
       <c r="C5" t="n">
-        <v>1.197604790419162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8726003490401396</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.221640488656195</v>
+        <v>0.4991680532445923</v>
       </c>
       <c r="C7" t="n">
-        <v>1.197604790419162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.221640488656195</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3265,11 +3421,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.221640488656195</v>
+        <v>1.830282861896839</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -3278,11 +3434,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3490401396160558</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -3291,11 +3447,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.141361256544502</v>
+        <v>0.3327787021630615</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -3304,154 +3460,154 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.094240837696335</v>
+        <v>3.161397670549085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5988023952095809</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3490401396160558</v>
+        <v>16.97171381031614</v>
       </c>
       <c r="C13" t="n">
-        <v>5.988023952095809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3490401396160558</v>
+        <v>1.996672212978369</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.221640488656195</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.796407185628742</v>
+        <v>4.285714285714286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1745200698080279</v>
+        <v>4.492512479201332</v>
       </c>
       <c r="C16" t="n">
-        <v>1.796407185628742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6980802792321117</v>
+        <v>1.164725457570716</v>
       </c>
       <c r="C17" t="n">
-        <v>2.395209580838324</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.013961605584642</v>
+        <v>0.1663893510815308</v>
       </c>
       <c r="C18" t="n">
-        <v>5.389221556886228</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.966841186736475</v>
+        <v>0.6655574043261231</v>
       </c>
       <c r="C19" t="n">
-        <v>1.197604790419162</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.094240837696335</v>
+        <v>3.660565723793678</v>
       </c>
       <c r="C20" t="n">
-        <v>1.197604790419162</v>
+        <v>4.285714285714286</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5235602094240838</v>
+        <v>1.996672212978369</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1745200698080279</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C22" t="n">
-        <v>1.796407185628742</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8726003490401396</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -3460,24 +3616,24 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.396160558464223</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.197604790419162</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.221640488656195</v>
+        <v>0.1663893510815308</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -3486,245 +3642,245 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.094240837696335</v>
+        <v>0.1663893510815308</v>
       </c>
       <c r="C26" t="n">
-        <v>1.197604790419162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8319467554076538</v>
       </c>
       <c r="C27" t="n">
-        <v>3.592814371257485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5235602094240838</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5988023952095809</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.69284467713787</v>
+        <v>0.8319467554076538</v>
       </c>
       <c r="C29" t="n">
-        <v>8.982035928143713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.663893510815308</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.570680628272251</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.570680628272251</v>
+        <v>0.6655574043261231</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5988023952095809</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.570680628272251</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5988023952095809</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.18848167539267</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.58682634730539</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.18324607329843</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C35" t="n">
-        <v>6.58682634730539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.678883071553229</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C36" t="n">
-        <v>5.988023952095809</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.584642233856894</v>
+        <v>1.331114808652246</v>
       </c>
       <c r="C37" t="n">
-        <v>7.18562874251497</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.315881326352531</v>
+        <v>3.161397670549085</v>
       </c>
       <c r="C38" t="n">
-        <v>3.592814371257485</v>
+        <v>5.714285714285714</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.141361256544502</v>
+        <v>1.663893510815308</v>
       </c>
       <c r="C39" t="n">
-        <v>2.994011976047904</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.221640488656195</v>
+        <v>6.821963394342761</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5988023952095809</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.221640488656195</v>
+        <v>4.658901830282862</v>
       </c>
       <c r="C41" t="n">
-        <v>2.994011976047904</v>
+        <v>5.714285714285714</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.826955074875208</v>
       </c>
       <c r="C42" t="n">
-        <v>1.197604790419162</v>
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8726003490401396</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3490401396160558</v>
+        <v>1.663893510815308</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3733,105 +3889,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.443280977312391</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="C45" t="n">
-        <v>2.994011976047904</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.221640488656195</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="C47" t="n">
-        <v>2.395209580838324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15.18324607329843</v>
+        <v>1.663893510815308</v>
       </c>
       <c r="C48" t="n">
-        <v>19.76047904191617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.919720767888307</v>
+        <v>2.329450915141431</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.221640488656195</v>
+        <v>1.497504159733777</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5988023952095809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.570680628272251</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.796407185628742</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6.988352745424292</v>
+      </c>
+      <c r="C52" t="n">
+        <v>14.28571428571428</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.329450915141431</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.164725457570716</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.996672212978369</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.142857142857143</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.197604790419162</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.571428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -3880,7 +4088,7 @@
         <v>1.041666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.6896551724137931</v>
       </c>
     </row>
     <row r="3">
@@ -3906,7 +4114,7 @@
         <v>7.986111111111111</v>
       </c>
       <c r="C4" t="n">
-        <v>7.792207792207792</v>
+        <v>6.896551724137931</v>
       </c>
     </row>
     <row r="5">
@@ -3919,7 +4127,7 @@
         <v>7.118055555555555</v>
       </c>
       <c r="C5" t="n">
-        <v>7.142857142857142</v>
+        <v>6.896551724137931</v>
       </c>
     </row>
     <row r="6">
@@ -3945,7 +4153,7 @@
         <v>3.125</v>
       </c>
       <c r="C7" t="n">
-        <v>5.194805194805195</v>
+        <v>5.517241379310345</v>
       </c>
     </row>
     <row r="8">
@@ -3971,7 +4179,7 @@
         <v>1.041666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>3.246753246753246</v>
+        <v>3.448275862068965</v>
       </c>
     </row>
     <row r="10">
@@ -3984,7 +4192,7 @@
         <v>15.97222222222222</v>
       </c>
       <c r="C10" t="n">
-        <v>6.493506493506493</v>
+        <v>6.206896551724139</v>
       </c>
     </row>
     <row r="11">
@@ -4023,7 +4231,7 @@
         <v>1.041666666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.6896551724137931</v>
       </c>
     </row>
     <row r="14">
@@ -4036,7 +4244,7 @@
         <v>3.472222222222222</v>
       </c>
       <c r="C14" t="n">
-        <v>2.597402597402597</v>
+        <v>2.758620689655173</v>
       </c>
     </row>
   </sheetData>
@@ -4050,7 +4258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4082,10 +4290,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.736111111111111</v>
+        <v>1.51006711409396</v>
       </c>
       <c r="C2" t="n">
-        <v>1.298701298701299</v>
+        <v>1.652892561983471</v>
       </c>
     </row>
     <row r="3">
@@ -4095,10 +4303,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.8389261744966443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="4">
@@ -4108,59 +4316,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.298611111111111</v>
+        <v>2.348993288590604</v>
       </c>
       <c r="C4" t="n">
-        <v>7.142857142857142</v>
+        <v>6.611570247933884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C5" t="n">
-        <v>1.298701298701299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8680555555555556</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.652892561983471</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.215277777777778</v>
+        <v>0.5033557046979865</v>
       </c>
       <c r="C7" t="n">
-        <v>1.298701298701299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.215277777777778</v>
+        <v>1.006711409395973</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4169,11 +4377,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.215277777777778</v>
+        <v>1.845637583892618</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4182,11 +4390,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3472222222222222</v>
+        <v>1.006711409395973</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -4195,11 +4403,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.125</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -4208,180 +4416,180 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.083333333333333</v>
+        <v>3.187919463087248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6493506493506493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3472222222222222</v>
+        <v>17.11409395973154</v>
       </c>
       <c r="C13" t="n">
-        <v>5.844155844155844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3472222222222222</v>
+        <v>2.013422818791946</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.652892561983471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.215277777777778</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>4.958677685950414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1736111111111111</v>
+        <v>4.530201342281879</v>
       </c>
       <c r="C16" t="n">
-        <v>1.948051948051948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6944444444444444</v>
+        <v>1.174496644295302</v>
       </c>
       <c r="C17" t="n">
-        <v>2.597402597402597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.993055555555555</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C18" t="n">
-        <v>5.844155844155844</v>
+        <v>1.652892561983471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.777777777777778</v>
+        <v>0.6711409395973155</v>
       </c>
       <c r="C19" t="n">
-        <v>1.298701298701299</v>
+        <v>2.479338842975207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.083333333333333</v>
+        <v>3.02013422818792</v>
       </c>
       <c r="C20" t="n">
-        <v>1.298701298701299</v>
+        <v>6.611570247933884</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5208333333333333</v>
+        <v>1.845637583892618</v>
       </c>
       <c r="C21" t="n">
-        <v>3.246753246753246</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1736111111111111</v>
+        <v>1.51006711409396</v>
       </c>
       <c r="C22" t="n">
-        <v>1.948051948051948</v>
+        <v>1.652892561983471</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8680555555555556</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.298701298701299</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.215277777777778</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -4390,245 +4598,245 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.083333333333333</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C26" t="n">
-        <v>1.298701298701299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8389261744966443</v>
       </c>
       <c r="C27" t="n">
-        <v>3.246753246753246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5208333333333333</v>
+        <v>1.51006711409396</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6493506493506493</v>
+        <v>1.652892561983471</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12.15277777777778</v>
+        <v>0.8389261744966443</v>
       </c>
       <c r="C29" t="n">
-        <v>10.38961038961039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.677852348993289</v>
       </c>
       <c r="C30" t="n">
-        <v>2.597402597402597</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.479338842975207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.736111111111111</v>
+        <v>0.6711409395973155</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6493506493506493</v>
+        <v>1.652892561983471</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.5625</v>
+        <v>2.013422818791946</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6493506493506493</v>
+        <v>2.479338842975207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.166666666666666</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.142857142857142</v>
+        <v>2.479338842975207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.10416666666667</v>
+        <v>1.51006711409396</v>
       </c>
       <c r="C35" t="n">
-        <v>5.844155844155844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.638888888888889</v>
+        <v>1.677852348993289</v>
       </c>
       <c r="C36" t="n">
-        <v>6.493506493506493</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.555555555555555</v>
+        <v>1.342281879194631</v>
       </c>
       <c r="C37" t="n">
-        <v>7.142857142857142</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.298611111111111</v>
+        <v>3.187919463087248</v>
       </c>
       <c r="C38" t="n">
-        <v>3.246753246753246</v>
+        <v>6.611570247933884</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.298611111111111</v>
+        <v>1.845637583892618</v>
       </c>
       <c r="C39" t="n">
-        <v>3.896103896103896</v>
+        <v>1.652892561983471</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.215277777777778</v>
+        <v>6.879194630872483</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6493506493506493</v>
+        <v>5.785123966942149</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.215277777777778</v>
+        <v>4.194630872483222</v>
       </c>
       <c r="C41" t="n">
-        <v>2.597402597402597</v>
+        <v>5.785123966942149</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.187919463087248</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6493506493506493</v>
+        <v>3.305785123966942</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8680555555555556</v>
+        <v>1.677852348993289</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.479338842975207</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3472222222222222</v>
+        <v>1.677852348993289</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4637,105 +4845,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.430555555555556</v>
+        <v>1.006711409395973</v>
       </c>
       <c r="C45" t="n">
-        <v>3.246753246753246</v>
+        <v>2.479338842975207</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.215277777777778</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.006711409395973</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6493506493506493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15.625</v>
+        <v>1.677852348993289</v>
       </c>
       <c r="C48" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.909722222222222</v>
+        <v>2.348993288590604</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>4.132231404958678</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.215277777777778</v>
+        <v>1.51006711409396</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6493506493506493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>2.597402597402597</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7.046979865771812</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12.39669421487603</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.348993288590604</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.174496644295302</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8264462809917356</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.013422818791946</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.305785123966942</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.298701298701299</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.132231404958678</v>
       </c>
     </row>
   </sheetData>
